--- a/data/xlsx/正确率-概率论2024.xlsx
+++ b/data/xlsx/正确率-概率论2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>复习全书基础篇</t>
+          <t>复习全书基础</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -560,7 +560,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1800基础篇</t>
+          <t>1800基础</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>张宇基础篇</t>
+          <t>张宇基础</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -738,6 +738,68 @@
         </is>
       </c>
       <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>张宇强化</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.3-1.4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70/88=79.5%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>18/22=81.8%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13/15=86.7%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>13/17=76.5%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8/13=61.5%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3/3=100%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3/4=75%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>12/14=85.7%</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/data/xlsx/正确率-概率论2024.xlsx
+++ b/data/xlsx/正确率-概率论2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11.3-11.0</t>
+          <t>11.3-11.10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -802,6 +802,254 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>复习全书提高</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2.7-2.9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2.7-2.12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>余炳森1000基础</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.18-2.19</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>91/95=95.79%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11/11=100%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14/14=100%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>19/20=95%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>20/20=100%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5/5=100%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10/12=83.3%</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>12/13=92.3%</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>余炳森1000强化</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2.27-2.28</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>123/159=77.4%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15/17=88.2%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>19/21=90.5%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>26/30=86.7%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>25/31=80.6%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>6/7=85.7%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>7/16=43.8%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>17/18=94.4%</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>8/19=42.1%</t>
         </is>
       </c>
     </row>

--- a/data/xlsx/正确率-概率论2024.xlsx
+++ b/data/xlsx/正确率-概率论2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,6 +1053,68 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>张宇基础</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3.16-3.18</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>152/162=93.8%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31/34=91.2%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>34/35=97.1%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>27/29=93.1%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>23/25=92%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>11/11=100%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>26/28=92.9%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/正确率-概率论2024.xlsx
+++ b/data/xlsx/正确率-概率论2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,47 +637,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>307/338=90.8%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>58/65=89.2%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>65/68=95.6%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>67/79=84.8%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>49/51=96.1%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7/9=77.8%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16/18=88.9%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>32/35=91.4%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>13/13=100%</t>
         </is>
       </c>
     </row>
@@ -1112,6 +1112,68 @@
       <c r="L11" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>杨超139强化</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5.16-5.18</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>324/338=95.9%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62/65=95.4%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>67/68=98.5%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>70/79=88.6%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>51/51=100%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>9/9=100%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>17/18=94.4%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>35/35=100%</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>13/13=100%</t>
         </is>
       </c>
     </row>
